--- a/pontinho2/outputs/gramatica/expression.xlsx
+++ b/pontinho2/outputs/gramatica/expression.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>=</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>"Identifier"</t>
   </si>
@@ -123,7 +120,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:W257"/>
+  <dimension ref="A1:V256"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -193,15 +190,12 @@
       <c r="V1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="0" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
         <v>0</v>
       </c>
-      <c r="B2" s="0">
+      <c r="V2" s="0">
         <v>1</v>
       </c>
     </row>
@@ -209,35 +203,35 @@
       <c r="A3" s="0">
         <v>1</v>
       </c>
-      <c r="J3" s="0">
-        <v>14</v>
-      </c>
-      <c r="W3" s="0">
-        <v>12</v>
+      <c r="B3" s="0">
+        <v>4</v>
+      </c>
+      <c r="V3" s="0">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
         <v>2</v>
       </c>
-      <c r="C4" s="0">
-        <v>5</v>
+      <c r="F4" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
         <v>3</v>
       </c>
-      <c r="G5" s="0">
-        <v>9</v>
+      <c r="V5" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
         <v>4</v>
       </c>
-      <c r="W6" s="0">
-        <v>3</v>
+      <c r="C6" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -260,98 +254,83 @@
       <c r="A9" s="0">
         <v>7</v>
       </c>
-      <c r="F9" s="0">
-        <v>8</v>
+      <c r="V9" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
         <v>8</v>
       </c>
-      <c r="W10" s="0">
-        <v>3</v>
+      <c r="V10" s="0">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
         <v>9</v>
       </c>
-      <c r="W11" s="0">
-        <v>1</v>
+      <c r="G11" s="0">
+        <v>10</v>
+      </c>
+      <c r="V11" s="0">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
         <v>10</v>
       </c>
-      <c r="H12" s="0">
-        <v>11</v>
+      <c r="V12" s="0">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
         <v>11</v>
       </c>
-      <c r="W13" s="0">
-        <v>9</v>
+      <c r="H13" s="0">
+        <v>12</v>
+      </c>
+      <c r="I13" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
         <v>12</v>
       </c>
-      <c r="I14" s="0">
-        <v>13</v>
+      <c r="V14" s="0">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
         <v>13</v>
       </c>
-      <c r="W15" s="0">
-        <v>11</v>
+      <c r="V15" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
         <v>14</v>
       </c>
-      <c r="G16" s="0">
-        <v>38</v>
-      </c>
-      <c r="N16" s="0">
-        <v>39</v>
-      </c>
-      <c r="O16" s="0">
-        <v>40</v>
-      </c>
-      <c r="P16" s="0">
-        <v>41</v>
-      </c>
-      <c r="Q16" s="0">
-        <v>42</v>
-      </c>
-      <c r="R16" s="0">
-        <v>43</v>
-      </c>
-      <c r="S16" s="0">
-        <v>44</v>
-      </c>
-      <c r="T16" s="0">
-        <v>45</v>
-      </c>
-      <c r="W16" s="0">
-        <v>36</v>
+      <c r="J16" s="0">
+        <v>16</v>
+      </c>
+      <c r="K16" s="0">
+        <v>17</v>
+      </c>
+      <c r="V16" s="0">
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
         <v>15</v>
       </c>
-      <c r="K17" s="0">
-        <v>17</v>
-      </c>
-      <c r="L17" s="0">
+      <c r="V17" s="0">
         <v>18</v>
       </c>
     </row>
@@ -359,123 +338,150 @@
       <c r="A18" s="0">
         <v>16</v>
       </c>
-      <c r="J18" s="0">
-        <v>21</v>
-      </c>
-      <c r="W18" s="0">
-        <v>19</v>
+      <c r="V18" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
         <v>17</v>
       </c>
-      <c r="W19" s="0">
-        <v>16</v>
+      <c r="V19" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
         <v>18</v>
       </c>
-      <c r="W20" s="0">
-        <v>16</v>
+      <c r="H20" s="0">
+        <v>19</v>
+      </c>
+      <c r="I20" s="0">
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
         <v>19</v>
       </c>
-      <c r="I21" s="0">
-        <v>20</v>
+      <c r="V21" s="0">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
         <v>20</v>
       </c>
-      <c r="W22" s="0">
-        <v>18</v>
+      <c r="V22" s="0">
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
         <v>21</v>
       </c>
-      <c r="W23" s="0">
-        <v>14</v>
+      <c r="F23" s="0">
+        <v>37</v>
+      </c>
+      <c r="H23" s="0">
+        <v>24</v>
+      </c>
+      <c r="L23" s="0">
+        <v>23</v>
+      </c>
+      <c r="M23" s="0">
+        <v>38</v>
+      </c>
+      <c r="N23" s="0">
+        <v>39</v>
+      </c>
+      <c r="O23" s="0">
+        <v>40</v>
+      </c>
+      <c r="P23" s="0">
+        <v>41</v>
+      </c>
+      <c r="Q23" s="0">
+        <v>42</v>
+      </c>
+      <c r="R23" s="0">
+        <v>43</v>
+      </c>
+      <c r="S23" s="0">
+        <v>44</v>
+      </c>
+      <c r="V23" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
         <v>22</v>
       </c>
-      <c r="I24" s="0">
+      <c r="V24" s="0">
         <v>25</v>
-      </c>
-      <c r="M24" s="0">
-        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
         <v>23</v>
       </c>
-      <c r="J25" s="0">
-        <v>28</v>
-      </c>
-      <c r="W25" s="0">
-        <v>26</v>
+      <c r="V25" s="0">
+        <v>21</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
         <v>24</v>
       </c>
-      <c r="W26" s="0">
-        <v>23</v>
+      <c r="V26" s="0">
+        <v>21</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
         <v>25</v>
       </c>
-      <c r="W27" s="0">
-        <v>23</v>
+      <c r="H27" s="0">
+        <v>26</v>
+      </c>
+      <c r="I27" s="0">
+        <v>27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
         <v>26</v>
       </c>
-      <c r="I28" s="0">
-        <v>27</v>
+      <c r="V28" s="0">
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
         <v>27</v>
       </c>
-      <c r="W29" s="0">
-        <v>25</v>
+      <c r="V29" s="0">
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
         <v>28</v>
       </c>
-      <c r="W30" s="0">
-        <v>21</v>
+      <c r="J30" s="0">
+        <v>30</v>
+      </c>
+      <c r="K30" s="0">
+        <v>31</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
         <v>29</v>
       </c>
-      <c r="K31" s="0">
-        <v>31</v>
-      </c>
-      <c r="L31" s="0">
+      <c r="V31" s="0">
         <v>32</v>
       </c>
     </row>
@@ -483,168 +489,171 @@
       <c r="A32" s="0">
         <v>30</v>
       </c>
-      <c r="J32" s="0">
-        <v>35</v>
-      </c>
-      <c r="W32" s="0">
-        <v>33</v>
+      <c r="V32" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
         <v>31</v>
       </c>
-      <c r="W33" s="0">
-        <v>30</v>
+      <c r="V33" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
         <v>32</v>
       </c>
-      <c r="W34" s="0">
-        <v>30</v>
+      <c r="H34" s="0">
+        <v>33</v>
+      </c>
+      <c r="I34" s="0">
+        <v>34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
         <v>33</v>
       </c>
-      <c r="I35" s="0">
-        <v>34</v>
+      <c r="V35" s="0">
+        <v>31</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
         <v>34</v>
       </c>
-      <c r="W36" s="0">
-        <v>32</v>
+      <c r="V36" s="0">
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
         <v>35</v>
       </c>
-      <c r="W37" s="0">
-        <v>28</v>
+      <c r="V37" s="0">
+        <v>69</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
         <v>36</v>
       </c>
-      <c r="W38" s="0">
-        <v>132</v>
+      <c r="V38" s="0">
+        <v>45</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
         <v>37</v>
       </c>
-      <c r="J39" s="0">
-        <v>48</v>
-      </c>
-      <c r="W39" s="0">
-        <v>46</v>
+      <c r="V39" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
         <v>38</v>
       </c>
-      <c r="W40" s="0">
-        <v>37</v>
+      <c r="V40" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
         <v>39</v>
       </c>
-      <c r="W41" s="0">
-        <v>37</v>
+      <c r="V41" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
         <v>40</v>
       </c>
-      <c r="W42" s="0">
-        <v>37</v>
+      <c r="V42" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
         <v>41</v>
       </c>
-      <c r="W43" s="0">
-        <v>37</v>
+      <c r="V43" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
         <v>42</v>
       </c>
-      <c r="W44" s="0">
-        <v>37</v>
+      <c r="V44" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
         <v>43</v>
       </c>
-      <c r="W45" s="0">
-        <v>37</v>
+      <c r="V45" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
         <v>44</v>
       </c>
-      <c r="W46" s="0">
-        <v>37</v>
+      <c r="V46" s="0">
+        <v>35</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
         <v>45</v>
       </c>
-      <c r="W47" s="0">
-        <v>37</v>
+      <c r="H47" s="0">
+        <v>46</v>
+      </c>
+      <c r="I47" s="0">
+        <v>47</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
         <v>46</v>
       </c>
-      <c r="I48" s="0">
-        <v>47</v>
+      <c r="V48" s="0">
+        <v>44</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
         <v>47</v>
       </c>
-      <c r="W49" s="0">
-        <v>45</v>
+      <c r="V49" s="0">
+        <v>34</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
         <v>48</v>
       </c>
-      <c r="W50" s="0">
-        <v>36</v>
+      <c r="J50" s="0">
+        <v>50</v>
+      </c>
+      <c r="K50" s="0">
+        <v>51</v>
+      </c>
+      <c r="V50" s="0">
+        <v>55</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
         <v>49</v>
       </c>
-      <c r="K51" s="0">
-        <v>51</v>
-      </c>
-      <c r="L51" s="0">
+      <c r="V51" s="0">
         <v>52</v>
       </c>
     </row>
@@ -652,123 +661,123 @@
       <c r="A52" s="0">
         <v>50</v>
       </c>
-      <c r="J52" s="0">
-        <v>55</v>
-      </c>
-      <c r="W52" s="0">
-        <v>53</v>
+      <c r="V52" s="0">
+        <v>48</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
         <v>51</v>
       </c>
-      <c r="W53" s="0">
-        <v>50</v>
+      <c r="V53" s="0">
+        <v>48</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
         <v>52</v>
       </c>
-      <c r="W54" s="0">
-        <v>50</v>
+      <c r="H54" s="0">
+        <v>53</v>
+      </c>
+      <c r="I54" s="0">
+        <v>54</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
         <v>53</v>
       </c>
-      <c r="I55" s="0">
-        <v>54</v>
+      <c r="V55" s="0">
+        <v>51</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
         <v>54</v>
       </c>
-      <c r="W56" s="0">
-        <v>52</v>
+      <c r="V56" s="0">
+        <v>47</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
         <v>55</v>
       </c>
-      <c r="W57" s="0">
-        <v>48</v>
+      <c r="H57" s="0">
+        <v>58</v>
+      </c>
+      <c r="L57" s="0">
+        <v>57</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
         <v>56</v>
       </c>
-      <c r="I58" s="0">
+      <c r="V58" s="0">
         <v>59</v>
-      </c>
-      <c r="M58" s="0">
-        <v>58</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
         <v>57</v>
       </c>
-      <c r="J59" s="0">
-        <v>62</v>
-      </c>
-      <c r="W59" s="0">
-        <v>60</v>
+      <c r="V59" s="0">
+        <v>55</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
         <v>58</v>
       </c>
-      <c r="W60" s="0">
-        <v>57</v>
+      <c r="V60" s="0">
+        <v>55</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
         <v>59</v>
       </c>
-      <c r="W61" s="0">
-        <v>57</v>
+      <c r="H61" s="0">
+        <v>60</v>
+      </c>
+      <c r="I61" s="0">
+        <v>61</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
         <v>60</v>
       </c>
-      <c r="I62" s="0">
-        <v>61</v>
+      <c r="V62" s="0">
+        <v>58</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
         <v>61</v>
       </c>
-      <c r="W63" s="0">
-        <v>59</v>
+      <c r="V63" s="0">
+        <v>54</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
         <v>62</v>
       </c>
-      <c r="W64" s="0">
-        <v>55</v>
+      <c r="J64" s="0">
+        <v>64</v>
+      </c>
+      <c r="K64" s="0">
+        <v>65</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
         <v>63</v>
       </c>
-      <c r="K65" s="0">
-        <v>65</v>
-      </c>
-      <c r="L65" s="0">
+      <c r="V65" s="0">
         <v>66</v>
       </c>
     </row>
@@ -776,58 +785,61 @@
       <c r="A66" s="0">
         <v>64</v>
       </c>
-      <c r="J66" s="0">
-        <v>69</v>
-      </c>
-      <c r="W66" s="0">
-        <v>67</v>
+      <c r="V66" s="0">
+        <v>62</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
         <v>65</v>
       </c>
-      <c r="W67" s="0">
-        <v>64</v>
+      <c r="V67" s="0">
+        <v>62</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
         <v>66</v>
       </c>
-      <c r="W68" s="0">
-        <v>64</v>
+      <c r="H68" s="0">
+        <v>67</v>
+      </c>
+      <c r="I68" s="0">
+        <v>68</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0">
         <v>67</v>
       </c>
-      <c r="I69" s="0">
-        <v>68</v>
+      <c r="V69" s="0">
+        <v>65</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0">
         <v>68</v>
       </c>
-      <c r="W70" s="0">
-        <v>66</v>
+      <c r="V70" s="0">
+        <v>61</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0">
         <v>69</v>
       </c>
-      <c r="W71" s="0">
-        <v>62</v>
+      <c r="T71" s="0">
+        <v>70</v>
+      </c>
+      <c r="V71" s="0">
+        <v>131</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0">
         <v>70</v>
       </c>
-      <c r="U72" s="0">
+      <c r="V72" s="0">
         <v>71</v>
       </c>
     </row>
@@ -835,85 +847,67 @@
       <c r="A73" s="0">
         <v>71</v>
       </c>
-      <c r="J73" s="0">
-        <v>76</v>
-      </c>
-      <c r="W73" s="0">
-        <v>74</v>
+      <c r="G73" s="0">
+        <v>72</v>
+      </c>
+      <c r="V73" s="0">
+        <v>73</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0">
         <v>72</v>
       </c>
-      <c r="H74" s="0">
-        <v>73</v>
+      <c r="V74" s="0">
+        <v>70</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0">
         <v>73</v>
       </c>
-      <c r="W75" s="0">
-        <v>71</v>
+      <c r="H75" s="0">
+        <v>74</v>
+      </c>
+      <c r="I75" s="0">
+        <v>75</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0">
         <v>74</v>
       </c>
-      <c r="I76" s="0">
-        <v>75</v>
+      <c r="V76" s="0">
+        <v>72</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0">
         <v>75</v>
       </c>
-      <c r="W77" s="0">
-        <v>73</v>
+      <c r="V77" s="0">
+        <v>68</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0">
         <v>76</v>
       </c>
-      <c r="G78" s="0">
-        <v>100</v>
-      </c>
-      <c r="N78" s="0">
-        <v>101</v>
-      </c>
-      <c r="O78" s="0">
-        <v>102</v>
-      </c>
-      <c r="P78" s="0">
-        <v>103</v>
-      </c>
-      <c r="Q78" s="0">
-        <v>104</v>
-      </c>
-      <c r="R78" s="0">
-        <v>105</v>
-      </c>
-      <c r="S78" s="0">
-        <v>106</v>
-      </c>
-      <c r="T78" s="0">
-        <v>107</v>
-      </c>
-      <c r="W78" s="0">
-        <v>69</v>
+      <c r="J78" s="0">
+        <v>78</v>
+      </c>
+      <c r="K78" s="0">
+        <v>79</v>
+      </c>
+      <c r="V78" s="0">
+        <v>83</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0">
         <v>77</v>
       </c>
-      <c r="K79" s="0">
-        <v>79</v>
-      </c>
-      <c r="L79" s="0">
+      <c r="V79" s="0">
         <v>80</v>
       </c>
     </row>
@@ -921,123 +915,150 @@
       <c r="A80" s="0">
         <v>78</v>
       </c>
-      <c r="J80" s="0">
-        <v>83</v>
-      </c>
-      <c r="W80" s="0">
-        <v>81</v>
+      <c r="V80" s="0">
+        <v>76</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0">
         <v>79</v>
       </c>
-      <c r="W81" s="0">
-        <v>78</v>
+      <c r="V81" s="0">
+        <v>76</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0">
         <v>80</v>
       </c>
-      <c r="W82" s="0">
-        <v>78</v>
+      <c r="H82" s="0">
+        <v>81</v>
+      </c>
+      <c r="I82" s="0">
+        <v>82</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0">
         <v>81</v>
       </c>
-      <c r="I83" s="0">
-        <v>82</v>
+      <c r="V83" s="0">
+        <v>79</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0">
         <v>82</v>
       </c>
-      <c r="W84" s="0">
-        <v>80</v>
+      <c r="V84" s="0">
+        <v>75</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0">
         <v>83</v>
       </c>
-      <c r="W85" s="0">
-        <v>76</v>
+      <c r="F85" s="0">
+        <v>99</v>
+      </c>
+      <c r="H85" s="0">
+        <v>86</v>
+      </c>
+      <c r="L85" s="0">
+        <v>85</v>
+      </c>
+      <c r="M85" s="0">
+        <v>100</v>
+      </c>
+      <c r="N85" s="0">
+        <v>101</v>
+      </c>
+      <c r="O85" s="0">
+        <v>102</v>
+      </c>
+      <c r="P85" s="0">
+        <v>103</v>
+      </c>
+      <c r="Q85" s="0">
+        <v>104</v>
+      </c>
+      <c r="R85" s="0">
+        <v>105</v>
+      </c>
+      <c r="S85" s="0">
+        <v>106</v>
+      </c>
+      <c r="V85" s="0">
+        <v>97</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0">
         <v>84</v>
       </c>
-      <c r="I86" s="0">
+      <c r="V86" s="0">
         <v>87</v>
-      </c>
-      <c r="M86" s="0">
-        <v>86</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
         <v>85</v>
       </c>
-      <c r="J87" s="0">
-        <v>90</v>
-      </c>
-      <c r="W87" s="0">
-        <v>88</v>
+      <c r="V87" s="0">
+        <v>83</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
         <v>86</v>
       </c>
-      <c r="W88" s="0">
-        <v>85</v>
+      <c r="V88" s="0">
+        <v>83</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
         <v>87</v>
       </c>
-      <c r="W89" s="0">
-        <v>85</v>
+      <c r="H89" s="0">
+        <v>88</v>
+      </c>
+      <c r="I89" s="0">
+        <v>89</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
         <v>88</v>
       </c>
-      <c r="I90" s="0">
-        <v>89</v>
+      <c r="V90" s="0">
+        <v>86</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
         <v>89</v>
       </c>
-      <c r="W91" s="0">
-        <v>87</v>
+      <c r="V91" s="0">
+        <v>82</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
         <v>90</v>
       </c>
-      <c r="W92" s="0">
-        <v>83</v>
+      <c r="J92" s="0">
+        <v>92</v>
+      </c>
+      <c r="K92" s="0">
+        <v>93</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
         <v>91</v>
       </c>
-      <c r="K93" s="0">
-        <v>93</v>
-      </c>
-      <c r="L93" s="0">
+      <c r="V93" s="0">
         <v>94</v>
       </c>
     </row>
@@ -1045,165 +1066,168 @@
       <c r="A94" s="0">
         <v>92</v>
       </c>
-      <c r="J94" s="0">
-        <v>97</v>
-      </c>
-      <c r="W94" s="0">
-        <v>95</v>
+      <c r="V94" s="0">
+        <v>90</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
         <v>93</v>
       </c>
-      <c r="W95" s="0">
-        <v>92</v>
+      <c r="V95" s="0">
+        <v>90</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
         <v>94</v>
       </c>
-      <c r="W96" s="0">
-        <v>92</v>
+      <c r="H96" s="0">
+        <v>95</v>
+      </c>
+      <c r="I96" s="0">
+        <v>96</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
         <v>95</v>
       </c>
-      <c r="I97" s="0">
-        <v>96</v>
+      <c r="V97" s="0">
+        <v>93</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
         <v>96</v>
       </c>
-      <c r="W98" s="0">
-        <v>94</v>
+      <c r="V98" s="0">
+        <v>89</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
         <v>97</v>
       </c>
-      <c r="W99" s="0">
-        <v>90</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" s="0">
         <v>98</v>
       </c>
+      <c r="V100" s="0">
+        <v>107</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="0">
         <v>99</v>
       </c>
-      <c r="J101" s="0">
-        <v>110</v>
-      </c>
-      <c r="W101" s="0">
-        <v>108</v>
+      <c r="V101" s="0">
+        <v>97</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0">
         <v>100</v>
       </c>
-      <c r="W102" s="0">
-        <v>99</v>
+      <c r="V102" s="0">
+        <v>97</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0">
         <v>101</v>
       </c>
-      <c r="W103" s="0">
-        <v>99</v>
+      <c r="V103" s="0">
+        <v>97</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0">
         <v>102</v>
       </c>
-      <c r="W104" s="0">
-        <v>99</v>
+      <c r="V104" s="0">
+        <v>97</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0">
         <v>103</v>
       </c>
-      <c r="W105" s="0">
-        <v>99</v>
+      <c r="V105" s="0">
+        <v>97</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0">
         <v>104</v>
       </c>
-      <c r="W106" s="0">
-        <v>99</v>
+      <c r="V106" s="0">
+        <v>97</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0">
         <v>105</v>
       </c>
-      <c r="W107" s="0">
-        <v>99</v>
+      <c r="V107" s="0">
+        <v>97</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0">
         <v>106</v>
       </c>
-      <c r="W108" s="0">
-        <v>99</v>
+      <c r="V108" s="0">
+        <v>97</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0">
         <v>107</v>
       </c>
-      <c r="W109" s="0">
-        <v>99</v>
+      <c r="H109" s="0">
+        <v>108</v>
+      </c>
+      <c r="I109" s="0">
+        <v>109</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0">
         <v>108</v>
       </c>
-      <c r="I110" s="0">
-        <v>109</v>
+      <c r="V110" s="0">
+        <v>106</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0">
         <v>109</v>
       </c>
-      <c r="W111" s="0">
-        <v>107</v>
+      <c r="V111" s="0">
+        <v>96</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0">
         <v>110</v>
       </c>
-      <c r="W112" s="0">
-        <v>98</v>
+      <c r="J112" s="0">
+        <v>112</v>
+      </c>
+      <c r="K112" s="0">
+        <v>113</v>
+      </c>
+      <c r="V112" s="0">
+        <v>117</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0">
         <v>111</v>
       </c>
-      <c r="K113" s="0">
-        <v>113</v>
-      </c>
-      <c r="L113" s="0">
+      <c r="V113" s="0">
         <v>114</v>
       </c>
     </row>
@@ -1211,123 +1235,123 @@
       <c r="A114" s="0">
         <v>112</v>
       </c>
-      <c r="J114" s="0">
-        <v>117</v>
-      </c>
-      <c r="W114" s="0">
-        <v>115</v>
+      <c r="V114" s="0">
+        <v>110</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0">
         <v>113</v>
       </c>
-      <c r="W115" s="0">
-        <v>112</v>
+      <c r="V115" s="0">
+        <v>110</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0">
         <v>114</v>
       </c>
-      <c r="W116" s="0">
-        <v>112</v>
+      <c r="H116" s="0">
+        <v>115</v>
+      </c>
+      <c r="I116" s="0">
+        <v>116</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0">
         <v>115</v>
       </c>
-      <c r="I117" s="0">
-        <v>116</v>
+      <c r="V117" s="0">
+        <v>113</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0">
         <v>116</v>
       </c>
-      <c r="W118" s="0">
-        <v>114</v>
+      <c r="V118" s="0">
+        <v>109</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0">
         <v>117</v>
       </c>
-      <c r="W119" s="0">
-        <v>110</v>
+      <c r="H119" s="0">
+        <v>120</v>
+      </c>
+      <c r="L119" s="0">
+        <v>119</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0">
         <v>118</v>
       </c>
-      <c r="I120" s="0">
+      <c r="V120" s="0">
         <v>121</v>
-      </c>
-      <c r="M120" s="0">
-        <v>120</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0">
         <v>119</v>
       </c>
-      <c r="J121" s="0">
-        <v>124</v>
-      </c>
-      <c r="W121" s="0">
-        <v>122</v>
+      <c r="V121" s="0">
+        <v>117</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0">
         <v>120</v>
       </c>
-      <c r="W122" s="0">
-        <v>119</v>
+      <c r="V122" s="0">
+        <v>117</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="0">
         <v>121</v>
       </c>
-      <c r="W123" s="0">
-        <v>119</v>
+      <c r="H123" s="0">
+        <v>122</v>
+      </c>
+      <c r="I123" s="0">
+        <v>123</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="0">
         <v>122</v>
       </c>
-      <c r="I124" s="0">
-        <v>123</v>
+      <c r="V124" s="0">
+        <v>120</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="0">
         <v>123</v>
       </c>
-      <c r="W125" s="0">
-        <v>121</v>
+      <c r="V125" s="0">
+        <v>116</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="0">
         <v>124</v>
       </c>
-      <c r="W126" s="0">
-        <v>117</v>
+      <c r="J126" s="0">
+        <v>126</v>
+      </c>
+      <c r="K126" s="0">
+        <v>127</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="0">
         <v>125</v>
       </c>
-      <c r="K127" s="0">
-        <v>127</v>
-      </c>
-      <c r="L127" s="0">
+      <c r="V127" s="0">
         <v>128</v>
       </c>
     </row>
@@ -1335,51 +1359,51 @@
       <c r="A128" s="0">
         <v>126</v>
       </c>
-      <c r="J128" s="0">
-        <v>131</v>
-      </c>
-      <c r="W128" s="0">
-        <v>129</v>
+      <c r="V128" s="0">
+        <v>124</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="0">
         <v>127</v>
       </c>
-      <c r="W129" s="0">
-        <v>126</v>
+      <c r="V129" s="0">
+        <v>124</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="0">
         <v>128</v>
       </c>
-      <c r="W130" s="0">
-        <v>126</v>
+      <c r="H130" s="0">
+        <v>129</v>
+      </c>
+      <c r="I130" s="0">
+        <v>130</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="0">
         <v>129</v>
       </c>
-      <c r="I131" s="0">
-        <v>130</v>
+      <c r="V131" s="0">
+        <v>127</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="0">
         <v>130</v>
       </c>
-      <c r="W132" s="0">
-        <v>128</v>
+      <c r="V132" s="0">
+        <v>123</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="0">
         <v>131</v>
       </c>
-      <c r="W133" s="0">
-        <v>124</v>
+      <c r="U133" s="0">
+        <v>132</v>
       </c>
     </row>
     <row r="134">
@@ -1394,85 +1418,67 @@
       <c r="A135" s="0">
         <v>133</v>
       </c>
-      <c r="J135" s="0">
-        <v>138</v>
-      </c>
-      <c r="W135" s="0">
-        <v>136</v>
+      <c r="G135" s="0">
+        <v>134</v>
+      </c>
+      <c r="V135" s="0">
+        <v>135</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="0">
         <v>134</v>
       </c>
-      <c r="H136" s="0">
-        <v>135</v>
+      <c r="V136" s="0">
+        <v>132</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="0">
         <v>135</v>
       </c>
-      <c r="W137" s="0">
-        <v>133</v>
+      <c r="H137" s="0">
+        <v>136</v>
+      </c>
+      <c r="I137" s="0">
+        <v>137</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="0">
         <v>136</v>
       </c>
-      <c r="I138" s="0">
-        <v>137</v>
+      <c r="V138" s="0">
+        <v>134</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="0">
         <v>137</v>
       </c>
-      <c r="W139" s="0">
-        <v>135</v>
+      <c r="V139" s="0">
+        <v>130</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="0">
         <v>138</v>
       </c>
-      <c r="G140" s="0">
-        <v>162</v>
-      </c>
-      <c r="N140" s="0">
-        <v>163</v>
-      </c>
-      <c r="O140" s="0">
-        <v>164</v>
-      </c>
-      <c r="P140" s="0">
-        <v>165</v>
-      </c>
-      <c r="Q140" s="0">
-        <v>166</v>
-      </c>
-      <c r="R140" s="0">
-        <v>167</v>
-      </c>
-      <c r="S140" s="0">
-        <v>168</v>
-      </c>
-      <c r="T140" s="0">
-        <v>169</v>
-      </c>
-      <c r="W140" s="0">
-        <v>131</v>
+      <c r="J140" s="0">
+        <v>140</v>
+      </c>
+      <c r="K140" s="0">
+        <v>141</v>
+      </c>
+      <c r="V140" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="0">
         <v>139</v>
       </c>
-      <c r="K141" s="0">
-        <v>141</v>
-      </c>
-      <c r="L141" s="0">
+      <c r="V141" s="0">
         <v>142</v>
       </c>
     </row>
@@ -1480,123 +1486,150 @@
       <c r="A142" s="0">
         <v>140</v>
       </c>
-      <c r="J142" s="0">
-        <v>145</v>
-      </c>
-      <c r="W142" s="0">
-        <v>143</v>
+      <c r="V142" s="0">
+        <v>138</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="0">
         <v>141</v>
       </c>
-      <c r="W143" s="0">
-        <v>140</v>
+      <c r="V143" s="0">
+        <v>138</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="0">
         <v>142</v>
       </c>
-      <c r="W144" s="0">
-        <v>140</v>
+      <c r="H144" s="0">
+        <v>143</v>
+      </c>
+      <c r="I144" s="0">
+        <v>144</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="0">
         <v>143</v>
       </c>
-      <c r="I145" s="0">
-        <v>144</v>
+      <c r="V145" s="0">
+        <v>141</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="0">
         <v>144</v>
       </c>
-      <c r="W146" s="0">
-        <v>142</v>
+      <c r="V146" s="0">
+        <v>137</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="0">
         <v>145</v>
       </c>
-      <c r="W147" s="0">
-        <v>138</v>
+      <c r="F147" s="0">
+        <v>161</v>
+      </c>
+      <c r="H147" s="0">
+        <v>148</v>
+      </c>
+      <c r="L147" s="0">
+        <v>147</v>
+      </c>
+      <c r="M147" s="0">
+        <v>162</v>
+      </c>
+      <c r="N147" s="0">
+        <v>163</v>
+      </c>
+      <c r="O147" s="0">
+        <v>164</v>
+      </c>
+      <c r="P147" s="0">
+        <v>165</v>
+      </c>
+      <c r="Q147" s="0">
+        <v>166</v>
+      </c>
+      <c r="R147" s="0">
+        <v>167</v>
+      </c>
+      <c r="S147" s="0">
+        <v>168</v>
+      </c>
+      <c r="V147" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="0">
         <v>146</v>
       </c>
-      <c r="I148" s="0">
+      <c r="V148" s="0">
         <v>149</v>
-      </c>
-      <c r="M148" s="0">
-        <v>148</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="0">
         <v>147</v>
       </c>
-      <c r="J149" s="0">
-        <v>152</v>
-      </c>
-      <c r="W149" s="0">
-        <v>150</v>
+      <c r="V149" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="0">
         <v>148</v>
       </c>
-      <c r="W150" s="0">
-        <v>147</v>
+      <c r="V150" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="0">
         <v>149</v>
       </c>
-      <c r="W151" s="0">
-        <v>147</v>
+      <c r="H151" s="0">
+        <v>150</v>
+      </c>
+      <c r="I151" s="0">
+        <v>151</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="0">
         <v>150</v>
       </c>
-      <c r="I152" s="0">
-        <v>151</v>
+      <c r="V152" s="0">
+        <v>148</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="0">
         <v>151</v>
       </c>
-      <c r="W153" s="0">
-        <v>149</v>
+      <c r="V153" s="0">
+        <v>144</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="0">
         <v>152</v>
       </c>
-      <c r="W154" s="0">
-        <v>145</v>
+      <c r="J154" s="0">
+        <v>154</v>
+      </c>
+      <c r="K154" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="0">
         <v>153</v>
       </c>
-      <c r="K155" s="0">
-        <v>155</v>
-      </c>
-      <c r="L155" s="0">
+      <c r="V155" s="0">
         <v>156</v>
       </c>
     </row>
@@ -1604,168 +1637,171 @@
       <c r="A156" s="0">
         <v>154</v>
       </c>
-      <c r="J156" s="0">
-        <v>159</v>
-      </c>
-      <c r="W156" s="0">
-        <v>157</v>
+      <c r="V156" s="0">
+        <v>152</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="0">
         <v>155</v>
       </c>
-      <c r="W157" s="0">
-        <v>154</v>
+      <c r="V157" s="0">
+        <v>152</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="0">
         <v>156</v>
       </c>
-      <c r="W158" s="0">
-        <v>154</v>
+      <c r="H158" s="0">
+        <v>157</v>
+      </c>
+      <c r="I158" s="0">
+        <v>158</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="0">
         <v>157</v>
       </c>
-      <c r="I159" s="0">
-        <v>158</v>
+      <c r="V159" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="0">
         <v>158</v>
       </c>
-      <c r="W160" s="0">
-        <v>156</v>
+      <c r="V160" s="0">
+        <v>151</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="0">
         <v>159</v>
       </c>
-      <c r="W161" s="0">
-        <v>152</v>
+      <c r="V161" s="0">
+        <v>193</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="0">
         <v>160</v>
       </c>
-      <c r="W162" s="0">
-        <v>194</v>
+      <c r="V162" s="0">
+        <v>169</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="0">
         <v>161</v>
       </c>
-      <c r="J163" s="0">
-        <v>172</v>
-      </c>
-      <c r="W163" s="0">
-        <v>170</v>
+      <c r="V163" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="0">
         <v>162</v>
       </c>
-      <c r="W164" s="0">
-        <v>161</v>
+      <c r="V164" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="0">
         <v>163</v>
       </c>
-      <c r="W165" s="0">
-        <v>161</v>
+      <c r="V165" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="0">
         <v>164</v>
       </c>
-      <c r="W166" s="0">
-        <v>161</v>
+      <c r="V166" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="0">
         <v>165</v>
       </c>
-      <c r="W167" s="0">
-        <v>161</v>
+      <c r="V167" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="0">
         <v>166</v>
       </c>
-      <c r="W168" s="0">
-        <v>161</v>
+      <c r="V168" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="0">
         <v>167</v>
       </c>
-      <c r="W169" s="0">
-        <v>161</v>
+      <c r="V169" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="0">
         <v>168</v>
       </c>
-      <c r="W170" s="0">
-        <v>161</v>
+      <c r="V170" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="0">
         <v>169</v>
       </c>
-      <c r="W171" s="0">
-        <v>161</v>
+      <c r="H171" s="0">
+        <v>170</v>
+      </c>
+      <c r="I171" s="0">
+        <v>171</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="0">
         <v>170</v>
       </c>
-      <c r="I172" s="0">
-        <v>171</v>
+      <c r="V172" s="0">
+        <v>168</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="0">
         <v>171</v>
       </c>
-      <c r="W173" s="0">
-        <v>169</v>
+      <c r="V173" s="0">
+        <v>158</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="0">
         <v>172</v>
       </c>
-      <c r="W174" s="0">
-        <v>160</v>
+      <c r="J174" s="0">
+        <v>174</v>
+      </c>
+      <c r="K174" s="0">
+        <v>175</v>
+      </c>
+      <c r="V174" s="0">
+        <v>179</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="0">
         <v>173</v>
       </c>
-      <c r="K175" s="0">
-        <v>175</v>
-      </c>
-      <c r="L175" s="0">
+      <c r="V175" s="0">
         <v>176</v>
       </c>
     </row>
@@ -1773,123 +1809,123 @@
       <c r="A176" s="0">
         <v>174</v>
       </c>
-      <c r="J176" s="0">
-        <v>179</v>
-      </c>
-      <c r="W176" s="0">
-        <v>177</v>
+      <c r="V176" s="0">
+        <v>172</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="0">
         <v>175</v>
       </c>
-      <c r="W177" s="0">
-        <v>174</v>
+      <c r="V177" s="0">
+        <v>172</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="0">
         <v>176</v>
       </c>
-      <c r="W178" s="0">
-        <v>174</v>
+      <c r="H178" s="0">
+        <v>177</v>
+      </c>
+      <c r="I178" s="0">
+        <v>178</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="0">
         <v>177</v>
       </c>
-      <c r="I179" s="0">
-        <v>178</v>
+      <c r="V179" s="0">
+        <v>175</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="0">
         <v>178</v>
       </c>
-      <c r="W180" s="0">
-        <v>176</v>
+      <c r="V180" s="0">
+        <v>171</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="0">
         <v>179</v>
       </c>
-      <c r="W181" s="0">
-        <v>172</v>
+      <c r="H181" s="0">
+        <v>182</v>
+      </c>
+      <c r="L181" s="0">
+        <v>181</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="0">
         <v>180</v>
       </c>
-      <c r="I182" s="0">
+      <c r="V182" s="0">
         <v>183</v>
-      </c>
-      <c r="M182" s="0">
-        <v>182</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="0">
         <v>181</v>
       </c>
-      <c r="J183" s="0">
-        <v>186</v>
-      </c>
-      <c r="W183" s="0">
-        <v>184</v>
+      <c r="V183" s="0">
+        <v>179</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="0">
         <v>182</v>
       </c>
-      <c r="W184" s="0">
-        <v>181</v>
+      <c r="V184" s="0">
+        <v>179</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="0">
         <v>183</v>
       </c>
-      <c r="W185" s="0">
-        <v>181</v>
+      <c r="H185" s="0">
+        <v>184</v>
+      </c>
+      <c r="I185" s="0">
+        <v>185</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="0">
         <v>184</v>
       </c>
-      <c r="I186" s="0">
-        <v>185</v>
+      <c r="V186" s="0">
+        <v>182</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="0">
         <v>185</v>
       </c>
-      <c r="W187" s="0">
-        <v>183</v>
+      <c r="V187" s="0">
+        <v>178</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="0">
         <v>186</v>
       </c>
-      <c r="W188" s="0">
-        <v>179</v>
+      <c r="J188" s="0">
+        <v>188</v>
+      </c>
+      <c r="K188" s="0">
+        <v>189</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="0">
         <v>187</v>
       </c>
-      <c r="K189" s="0">
-        <v>189</v>
-      </c>
-      <c r="L189" s="0">
+      <c r="V189" s="0">
         <v>190</v>
       </c>
     </row>
@@ -1897,58 +1933,58 @@
       <c r="A190" s="0">
         <v>188</v>
       </c>
-      <c r="J190" s="0">
-        <v>193</v>
-      </c>
-      <c r="W190" s="0">
-        <v>191</v>
+      <c r="V190" s="0">
+        <v>186</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="0">
         <v>189</v>
       </c>
-      <c r="W191" s="0">
-        <v>188</v>
+      <c r="V191" s="0">
+        <v>186</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="0">
         <v>190</v>
       </c>
-      <c r="W192" s="0">
-        <v>188</v>
+      <c r="H192" s="0">
+        <v>191</v>
+      </c>
+      <c r="I192" s="0">
+        <v>192</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="0">
         <v>191</v>
       </c>
-      <c r="I193" s="0">
-        <v>192</v>
+      <c r="V193" s="0">
+        <v>189</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="0">
         <v>192</v>
       </c>
-      <c r="W194" s="0">
-        <v>190</v>
+      <c r="V194" s="0">
+        <v>185</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="0">
         <v>193</v>
       </c>
-      <c r="W195" s="0">
-        <v>186</v>
+      <c r="T195" s="0">
+        <v>194</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="0">
         <v>194</v>
       </c>
-      <c r="U196" s="0">
+      <c r="V196" s="0">
         <v>195</v>
       </c>
     </row>
@@ -1956,85 +1992,67 @@
       <c r="A197" s="0">
         <v>195</v>
       </c>
-      <c r="J197" s="0">
-        <v>200</v>
-      </c>
-      <c r="W197" s="0">
-        <v>198</v>
+      <c r="G197" s="0">
+        <v>196</v>
+      </c>
+      <c r="V197" s="0">
+        <v>197</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="0">
         <v>196</v>
       </c>
-      <c r="H198" s="0">
-        <v>197</v>
+      <c r="V198" s="0">
+        <v>194</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="0">
         <v>197</v>
       </c>
-      <c r="W199" s="0">
-        <v>195</v>
+      <c r="H199" s="0">
+        <v>198</v>
+      </c>
+      <c r="I199" s="0">
+        <v>199</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="0">
         <v>198</v>
       </c>
-      <c r="I200" s="0">
-        <v>199</v>
+      <c r="V200" s="0">
+        <v>196</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="0">
         <v>199</v>
       </c>
-      <c r="W201" s="0">
-        <v>197</v>
+      <c r="V201" s="0">
+        <v>192</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="0">
         <v>200</v>
       </c>
-      <c r="G202" s="0">
-        <v>224</v>
-      </c>
-      <c r="N202" s="0">
-        <v>225</v>
-      </c>
-      <c r="O202" s="0">
-        <v>226</v>
-      </c>
-      <c r="P202" s="0">
-        <v>227</v>
-      </c>
-      <c r="Q202" s="0">
-        <v>228</v>
-      </c>
-      <c r="R202" s="0">
-        <v>229</v>
-      </c>
-      <c r="S202" s="0">
-        <v>230</v>
-      </c>
-      <c r="T202" s="0">
-        <v>231</v>
-      </c>
-      <c r="W202" s="0">
-        <v>193</v>
+      <c r="J202" s="0">
+        <v>202</v>
+      </c>
+      <c r="K202" s="0">
+        <v>203</v>
+      </c>
+      <c r="V202" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="0">
         <v>201</v>
       </c>
-      <c r="K203" s="0">
-        <v>203</v>
-      </c>
-      <c r="L203" s="0">
+      <c r="V203" s="0">
         <v>204</v>
       </c>
     </row>
@@ -2042,123 +2060,150 @@
       <c r="A204" s="0">
         <v>202</v>
       </c>
-      <c r="J204" s="0">
-        <v>207</v>
-      </c>
-      <c r="W204" s="0">
-        <v>205</v>
+      <c r="V204" s="0">
+        <v>200</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="0">
         <v>203</v>
       </c>
-      <c r="W205" s="0">
-        <v>202</v>
+      <c r="V205" s="0">
+        <v>200</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="0">
         <v>204</v>
       </c>
-      <c r="W206" s="0">
-        <v>202</v>
+      <c r="H206" s="0">
+        <v>205</v>
+      </c>
+      <c r="I206" s="0">
+        <v>206</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="0">
         <v>205</v>
       </c>
-      <c r="I207" s="0">
-        <v>206</v>
+      <c r="V207" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="0">
         <v>206</v>
       </c>
-      <c r="W208" s="0">
-        <v>204</v>
+      <c r="V208" s="0">
+        <v>199</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="0">
         <v>207</v>
       </c>
-      <c r="W209" s="0">
-        <v>200</v>
+      <c r="F209" s="0">
+        <v>223</v>
+      </c>
+      <c r="H209" s="0">
+        <v>210</v>
+      </c>
+      <c r="L209" s="0">
+        <v>209</v>
+      </c>
+      <c r="M209" s="0">
+        <v>224</v>
+      </c>
+      <c r="N209" s="0">
+        <v>225</v>
+      </c>
+      <c r="O209" s="0">
+        <v>226</v>
+      </c>
+      <c r="P209" s="0">
+        <v>227</v>
+      </c>
+      <c r="Q209" s="0">
+        <v>228</v>
+      </c>
+      <c r="R209" s="0">
+        <v>229</v>
+      </c>
+      <c r="S209" s="0">
+        <v>230</v>
+      </c>
+      <c r="V209" s="0">
+        <v>221</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="0">
         <v>208</v>
       </c>
-      <c r="I210" s="0">
+      <c r="V210" s="0">
         <v>211</v>
-      </c>
-      <c r="M210" s="0">
-        <v>210</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="0">
         <v>209</v>
       </c>
-      <c r="J211" s="0">
-        <v>214</v>
-      </c>
-      <c r="W211" s="0">
-        <v>212</v>
+      <c r="V211" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="0">
         <v>210</v>
       </c>
-      <c r="W212" s="0">
-        <v>209</v>
+      <c r="V212" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="0">
         <v>211</v>
       </c>
-      <c r="W213" s="0">
-        <v>209</v>
+      <c r="H213" s="0">
+        <v>212</v>
+      </c>
+      <c r="I213" s="0">
+        <v>213</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="0">
         <v>212</v>
       </c>
-      <c r="I214" s="0">
-        <v>213</v>
+      <c r="V214" s="0">
+        <v>210</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="0">
         <v>213</v>
       </c>
-      <c r="W215" s="0">
-        <v>211</v>
+      <c r="V215" s="0">
+        <v>206</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="0">
         <v>214</v>
       </c>
-      <c r="W216" s="0">
-        <v>207</v>
+      <c r="J216" s="0">
+        <v>216</v>
+      </c>
+      <c r="K216" s="0">
+        <v>217</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="0">
         <v>215</v>
       </c>
-      <c r="K217" s="0">
-        <v>217</v>
-      </c>
-      <c r="L217" s="0">
+      <c r="V217" s="0">
         <v>218</v>
       </c>
     </row>
@@ -2166,165 +2211,168 @@
       <c r="A218" s="0">
         <v>216</v>
       </c>
-      <c r="J218" s="0">
-        <v>221</v>
-      </c>
-      <c r="W218" s="0">
-        <v>219</v>
+      <c r="V218" s="0">
+        <v>214</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="0">
         <v>217</v>
       </c>
-      <c r="W219" s="0">
-        <v>216</v>
+      <c r="V219" s="0">
+        <v>214</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="0">
         <v>218</v>
       </c>
-      <c r="W220" s="0">
-        <v>216</v>
+      <c r="H220" s="0">
+        <v>219</v>
+      </c>
+      <c r="I220" s="0">
+        <v>220</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="0">
         <v>219</v>
       </c>
-      <c r="I221" s="0">
-        <v>220</v>
+      <c r="V221" s="0">
+        <v>217</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="0">
         <v>220</v>
       </c>
-      <c r="W222" s="0">
-        <v>218</v>
+      <c r="V222" s="0">
+        <v>213</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="0">
         <v>221</v>
       </c>
-      <c r="W223" s="0">
-        <v>214</v>
-      </c>
     </row>
     <row r="224">
       <c r="A224" s="0">
         <v>222</v>
       </c>
+      <c r="V224" s="0">
+        <v>231</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="0">
         <v>223</v>
       </c>
-      <c r="J225" s="0">
-        <v>234</v>
-      </c>
-      <c r="W225" s="0">
-        <v>232</v>
+      <c r="V225" s="0">
+        <v>221</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="0">
         <v>224</v>
       </c>
-      <c r="W226" s="0">
-        <v>223</v>
+      <c r="V226" s="0">
+        <v>221</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="0">
         <v>225</v>
       </c>
-      <c r="W227" s="0">
-        <v>223</v>
+      <c r="V227" s="0">
+        <v>221</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="0">
         <v>226</v>
       </c>
-      <c r="W228" s="0">
-        <v>223</v>
+      <c r="V228" s="0">
+        <v>221</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="0">
         <v>227</v>
       </c>
-      <c r="W229" s="0">
-        <v>223</v>
+      <c r="V229" s="0">
+        <v>221</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="0">
         <v>228</v>
       </c>
-      <c r="W230" s="0">
-        <v>223</v>
+      <c r="V230" s="0">
+        <v>221</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="0">
         <v>229</v>
       </c>
-      <c r="W231" s="0">
-        <v>223</v>
+      <c r="V231" s="0">
+        <v>221</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="0">
         <v>230</v>
       </c>
-      <c r="W232" s="0">
-        <v>223</v>
+      <c r="V232" s="0">
+        <v>221</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="0">
         <v>231</v>
       </c>
-      <c r="W233" s="0">
-        <v>223</v>
+      <c r="H233" s="0">
+        <v>232</v>
+      </c>
+      <c r="I233" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="0">
         <v>232</v>
       </c>
-      <c r="I234" s="0">
-        <v>233</v>
+      <c r="V234" s="0">
+        <v>230</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="0">
         <v>233</v>
       </c>
-      <c r="W235" s="0">
-        <v>231</v>
+      <c r="V235" s="0">
+        <v>220</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="0">
         <v>234</v>
       </c>
-      <c r="W236" s="0">
-        <v>222</v>
+      <c r="J236" s="0">
+        <v>236</v>
+      </c>
+      <c r="K236" s="0">
+        <v>237</v>
+      </c>
+      <c r="V236" s="0">
+        <v>241</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="0">
         <v>235</v>
       </c>
-      <c r="K237" s="0">
-        <v>237</v>
-      </c>
-      <c r="L237" s="0">
+      <c r="V237" s="0">
         <v>238</v>
       </c>
     </row>
@@ -2332,123 +2380,123 @@
       <c r="A238" s="0">
         <v>236</v>
       </c>
-      <c r="J238" s="0">
-        <v>241</v>
-      </c>
-      <c r="W238" s="0">
-        <v>239</v>
+      <c r="V238" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="0">
         <v>237</v>
       </c>
-      <c r="W239" s="0">
-        <v>236</v>
+      <c r="V239" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="0">
         <v>238</v>
       </c>
-      <c r="W240" s="0">
-        <v>236</v>
+      <c r="H240" s="0">
+        <v>239</v>
+      </c>
+      <c r="I240" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="0">
         <v>239</v>
       </c>
-      <c r="I241" s="0">
-        <v>240</v>
+      <c r="V241" s="0">
+        <v>237</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="0">
         <v>240</v>
       </c>
-      <c r="W242" s="0">
-        <v>238</v>
+      <c r="V242" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="0">
         <v>241</v>
       </c>
-      <c r="W243" s="0">
-        <v>234</v>
+      <c r="H243" s="0">
+        <v>244</v>
+      </c>
+      <c r="L243" s="0">
+        <v>243</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="0">
         <v>242</v>
       </c>
-      <c r="I244" s="0">
+      <c r="V244" s="0">
         <v>245</v>
-      </c>
-      <c r="M244" s="0">
-        <v>244</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="0">
         <v>243</v>
       </c>
-      <c r="J245" s="0">
-        <v>248</v>
-      </c>
-      <c r="W245" s="0">
-        <v>246</v>
+      <c r="V245" s="0">
+        <v>241</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="0">
         <v>244</v>
       </c>
-      <c r="W246" s="0">
-        <v>243</v>
+      <c r="V246" s="0">
+        <v>241</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="0">
         <v>245</v>
       </c>
-      <c r="W247" s="0">
-        <v>243</v>
+      <c r="H247" s="0">
+        <v>246</v>
+      </c>
+      <c r="I247" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="0">
         <v>246</v>
       </c>
-      <c r="I248" s="0">
-        <v>247</v>
+      <c r="V248" s="0">
+        <v>244</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="0">
         <v>247</v>
       </c>
-      <c r="W249" s="0">
-        <v>245</v>
+      <c r="V249" s="0">
+        <v>240</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="0">
         <v>248</v>
       </c>
-      <c r="W250" s="0">
-        <v>241</v>
+      <c r="J250" s="0">
+        <v>250</v>
+      </c>
+      <c r="K250" s="0">
+        <v>251</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="0">
         <v>249</v>
       </c>
-      <c r="K251" s="0">
-        <v>251</v>
-      </c>
-      <c r="L251" s="0">
+      <c r="V251" s="0">
         <v>252</v>
       </c>
     </row>
@@ -2456,51 +2504,43 @@
       <c r="A252" s="0">
         <v>250</v>
       </c>
-      <c r="J252" s="0">
-        <v>255</v>
-      </c>
-      <c r="W252" s="0">
-        <v>253</v>
+      <c r="V252" s="0">
+        <v>248</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="0">
         <v>251</v>
       </c>
-      <c r="W253" s="0">
-        <v>250</v>
+      <c r="V253" s="0">
+        <v>248</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="0">
         <v>252</v>
       </c>
-      <c r="W254" s="0">
-        <v>250</v>
+      <c r="H254" s="0">
+        <v>253</v>
+      </c>
+      <c r="I254" s="0">
+        <v>254</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="0">
         <v>253</v>
       </c>
-      <c r="I255" s="0">
-        <v>254</v>
+      <c r="V255" s="0">
+        <v>251</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="0">
         <v>254</v>
       </c>
-      <c r="W256" s="0">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="0">
-        <v>255</v>
-      </c>
-      <c r="W257" s="0">
-        <v>248</v>
+      <c r="V256" s="0">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
